--- a/data/cuits.xlsx
+++ b/data/cuits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\comprobantes_afip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\resumen_contable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0E084B-9818-48B8-A5ED-390660B5A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E887175-95AE-44E1-86BF-6AA630E1C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="3195" windowWidth="18000" windowHeight="9270" xr2:uid="{47B0D7E8-D0B2-4294-85DB-E828E23BD865}"/>
+    <workbookView xWindow="-6090" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{47B0D7E8-D0B2-4294-85DB-E828E23BD865}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Deposito Avellaneda Sur S.A.</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>De la Arena Coll Manuel</t>
+  </si>
+  <si>
+    <t>De la Arena Martin</t>
+  </si>
+  <si>
+    <t>Hermosalta SRL</t>
+  </si>
+  <si>
+    <t>Leoni Maria Jose</t>
+  </si>
+  <si>
+    <t>Valenzuela Ricardo Patricio</t>
   </si>
 </sst>
 </file>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D2AA2-C410-449F-8067-3E66A2F8FB2B}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +827,38 @@
         <v>23363457959</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>20147087943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>30712585206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>23137353334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>20146106197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cuits.xlsx
+++ b/data/cuits.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\resumen_contable\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Guido W\consul\resumen_contable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E887175-95AE-44E1-86BF-6AA630E1C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE63053-52B1-43B3-985B-B8C835A220FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6090" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{47B0D7E8-D0B2-4294-85DB-E828E23BD865}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47B0D7E8-D0B2-4294-85DB-E828E23BD865}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Deposito Avellaneda Sur S.A.</t>
   </si>
@@ -118,6 +129,9 @@
   </si>
   <si>
     <t>Valenzuela Ricardo Patricio</t>
+  </si>
+  <si>
+    <t>Aires del Sur</t>
   </si>
 </sst>
 </file>
@@ -161,9 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,19 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D2AA2-C410-449F-8067-3E66A2F8FB2B}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -525,7 +540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +560,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -566,7 +581,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -580,7 +595,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -600,7 +615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -614,7 +629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -647,7 +662,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -680,7 +695,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -713,7 +728,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -721,7 +736,7 @@
         <v>30717576477</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -742,7 +757,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -763,7 +778,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -789,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -803,7 +818,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -811,7 +826,7 @@
         <v>33717159859</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -819,7 +834,7 @@
         <v>30717753018</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -827,7 +842,7 @@
         <v>23363457959</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -835,7 +850,7 @@
         <v>20147087943</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -843,7 +858,7 @@
         <v>30712585206</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -851,12 +866,20 @@
         <v>23137353334</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
         <v>20146106197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30718108728</v>
       </c>
     </row>
   </sheetData>
